--- a/QA/Test designe/test design.xlsx
+++ b/QA/Test designe/test design.xlsx
@@ -1,22 +1,30 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="20730"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C0F67FBA-3B05-42D2-8E79-42BD594C952A}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="1"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Transition state" sheetId="1" r:id="rId1"/>
     <sheet name="Decision Table" sheetId="2" r:id="rId2"/>
-    <sheet name="User scenarios" sheetId="3" r:id="rId3"/>
+    <sheet name="Use Cases" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="122211"/>
+  <calcPr calcId="179021"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="21">
   <si>
     <t>People who are 2 (two) years old and older</t>
   </si>
@@ -49,12 +57,57 @@
   </si>
   <si>
     <t>x</t>
+  </si>
+  <si>
+    <t>UC:</t>
+  </si>
+  <si>
+    <t>Preconditions:</t>
+  </si>
+  <si>
+    <t>Main scenarios:</t>
+  </si>
+  <si>
+    <t>Contributing Person:</t>
+  </si>
+  <si>
+    <t>Alternative scenarios:</t>
+  </si>
+  <si>
+    <t>Payment of a ticket</t>
+  </si>
+  <si>
+    <t>Site User</t>
+  </si>
+  <si>
+    <t>The user is on the main page of the site</t>
+  </si>
+  <si>
+    <t>1- The user enters the data (from where, to where, the date of departure, the date of arrival, the number of people and the class of the air ticket)
+2- The user clicks the search button on the given data
+3- User chooses the city of arrival
+4- The user clicks the "Find tickets" button
+5- The user selects a suitable ticket and presses the "order" button
+6- The user enters his personal data, the presence of baggage and his contact details
+7- The user clicks the "Continue" button
+8- The user chooses the payment method that suits him
+9- The user enters their card details and confirms the payment
+10- The user enters his mail
+11- The user prints out an e-ticket that came to his e-mail</t>
+  </si>
+  <si>
+    <t>1- The user could not find the ticket for the desired date
+1.1- User is looking for a ticket for a different date
+1.2-  Go to step 1 of the main case
+2- The user could not pay the ticket
+2.1- The user changes the payment method
+2.2- Go to step 8 of the main case</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -155,7 +208,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -173,16 +226,30 @@
     <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Обычный" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
@@ -190,14 +257,17 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
   </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Тема Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
-    <a:clrScheme name="Стандартная">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -235,9 +305,9 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Стандартная">
+    <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -270,9 +340,26 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -305,9 +392,26 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Стандартная">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -480,10 +584,10 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
@@ -494,11 +598,11 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:Q22"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L19" sqref="L19"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="M16" sqref="M16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -648,49 +752,81 @@
       <c r="A6" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="B6" s="9"/>
-      <c r="C6" s="9"/>
-      <c r="D6" s="9"/>
-      <c r="E6" s="9"/>
-      <c r="F6" s="9"/>
-      <c r="G6" s="9"/>
-      <c r="H6" s="9"/>
-      <c r="I6" s="9"/>
-      <c r="J6" s="9"/>
-      <c r="K6" s="9"/>
-      <c r="L6" s="9"/>
-      <c r="M6" s="9"/>
-      <c r="N6" s="9"/>
-      <c r="O6" s="9"/>
-      <c r="P6" s="9"/>
-      <c r="Q6" s="9"/>
+      <c r="B6" s="11">
+        <v>1</v>
+      </c>
+      <c r="C6" s="11">
+        <v>2</v>
+      </c>
+      <c r="D6" s="11">
+        <v>3</v>
+      </c>
+      <c r="E6" s="11">
+        <v>4</v>
+      </c>
+      <c r="F6" s="11">
+        <v>5</v>
+      </c>
+      <c r="G6" s="11">
+        <v>6</v>
+      </c>
+      <c r="H6" s="11">
+        <v>7</v>
+      </c>
+      <c r="I6" s="11">
+        <v>8</v>
+      </c>
+      <c r="J6" s="11">
+        <v>9</v>
+      </c>
+      <c r="K6" s="11">
+        <v>10</v>
+      </c>
+      <c r="L6" s="11">
+        <v>11</v>
+      </c>
+      <c r="M6" s="11">
+        <v>12</v>
+      </c>
+      <c r="N6" s="11">
+        <v>13</v>
+      </c>
+      <c r="O6" s="11">
+        <v>14</v>
+      </c>
+      <c r="P6" s="11">
+        <v>15</v>
+      </c>
+      <c r="Q6" s="11">
+        <v>16</v>
+      </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B7" s="11" t="s">
-        <v>10</v>
-      </c>
-      <c r="C7" s="11" t="s">
-        <v>10</v>
-      </c>
-      <c r="D7" s="11" t="s">
-        <v>10</v>
-      </c>
-      <c r="E7" s="11" t="s">
-        <v>10</v>
-      </c>
-      <c r="F7" s="11" t="s">
-        <v>10</v>
-      </c>
-      <c r="G7" s="11" t="s">
-        <v>10</v>
-      </c>
-      <c r="H7" s="11" t="s">
-        <v>10</v>
-      </c>
-      <c r="I7" s="11" t="s">
+      <c r="B7" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="C7" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="D7" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="E7" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="F7" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="G7" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="H7" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="I7" s="10" t="s">
         <v>10</v>
       </c>
       <c r="J7" s="2"/>
@@ -706,18 +842,18 @@
       <c r="A8" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B8" s="10"/>
-      <c r="C8" s="10"/>
-      <c r="D8" s="11" t="s">
-        <v>10</v>
-      </c>
-      <c r="E8" s="11" t="s">
-        <v>10</v>
-      </c>
-      <c r="F8" s="10"/>
-      <c r="G8" s="10"/>
-      <c r="H8" s="10"/>
-      <c r="I8" s="10"/>
+      <c r="B8" s="9"/>
+      <c r="C8" s="9"/>
+      <c r="D8" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="E8" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="F8" s="9"/>
+      <c r="G8" s="9"/>
+      <c r="H8" s="9"/>
+      <c r="I8" s="9"/>
       <c r="J8" s="2"/>
       <c r="K8" s="2"/>
       <c r="L8" s="2"/>
@@ -731,22 +867,22 @@
       <c r="A9" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B9" s="11" t="s">
-        <v>10</v>
-      </c>
-      <c r="C9" s="11" t="s">
-        <v>10</v>
-      </c>
-      <c r="D9" s="10"/>
-      <c r="E9" s="10"/>
-      <c r="F9" s="11" t="s">
-        <v>10</v>
-      </c>
-      <c r="G9" s="11" t="s">
-        <v>10</v>
-      </c>
-      <c r="H9" s="10"/>
-      <c r="I9" s="10"/>
+      <c r="B9" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="C9" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="D9" s="9"/>
+      <c r="E9" s="9"/>
+      <c r="F9" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="G9" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="H9" s="9"/>
+      <c r="I9" s="9"/>
       <c r="J9" s="2"/>
       <c r="K9" s="2"/>
       <c r="L9" s="2"/>
@@ -760,22 +896,22 @@
       <c r="A10" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B10" s="11" t="s">
-        <v>10</v>
-      </c>
-      <c r="C10" s="10"/>
-      <c r="D10" s="11" t="s">
-        <v>10</v>
-      </c>
-      <c r="E10" s="10"/>
-      <c r="F10" s="11" t="s">
-        <v>10</v>
-      </c>
-      <c r="G10" s="10"/>
-      <c r="H10" s="11" t="s">
-        <v>10</v>
-      </c>
-      <c r="I10" s="10"/>
+      <c r="B10" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="C10" s="9"/>
+      <c r="D10" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="E10" s="9"/>
+      <c r="F10" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="G10" s="9"/>
+      <c r="H10" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="I10" s="9"/>
       <c r="J10" s="2"/>
       <c r="K10" s="2"/>
       <c r="L10" s="2"/>
@@ -856,33 +992,45 @@
       <c r="A18" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="B18" s="9"/>
-      <c r="C18" s="9"/>
-      <c r="D18" s="9"/>
-      <c r="E18" s="9"/>
-      <c r="F18" s="9"/>
-      <c r="G18" s="9"/>
+      <c r="B18" s="11">
+        <v>1</v>
+      </c>
+      <c r="C18" s="11">
+        <v>2</v>
+      </c>
+      <c r="D18" s="11">
+        <v>3</v>
+      </c>
+      <c r="E18" s="11">
+        <v>4</v>
+      </c>
+      <c r="F18" s="11">
+        <v>7</v>
+      </c>
+      <c r="G18" s="11">
+        <v>8</v>
+      </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B19" s="11" t="s">
-        <v>10</v>
-      </c>
-      <c r="C19" s="11" t="s">
-        <v>10</v>
-      </c>
-      <c r="D19" s="11" t="s">
-        <v>10</v>
-      </c>
-      <c r="E19" s="11" t="s">
-        <v>10</v>
-      </c>
-      <c r="F19" s="11" t="s">
-        <v>10</v>
-      </c>
-      <c r="G19" s="11" t="s">
+      <c r="B19" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="C19" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="D19" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="E19" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="F19" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="G19" s="10" t="s">
         <v>10</v>
       </c>
     </row>
@@ -890,48 +1038,48 @@
       <c r="A20" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B20" s="10"/>
-      <c r="C20" s="10"/>
-      <c r="D20" s="11" t="s">
-        <v>10</v>
-      </c>
-      <c r="E20" s="11" t="s">
-        <v>10</v>
-      </c>
-      <c r="F20" s="10"/>
-      <c r="G20" s="10"/>
+      <c r="B20" s="9"/>
+      <c r="C20" s="9"/>
+      <c r="D20" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="E20" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="F20" s="9"/>
+      <c r="G20" s="9"/>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B21" s="11" t="s">
-        <v>10</v>
-      </c>
-      <c r="C21" s="11" t="s">
-        <v>10</v>
-      </c>
-      <c r="D21" s="10"/>
-      <c r="E21" s="10"/>
-      <c r="F21" s="10"/>
-      <c r="G21" s="10"/>
+      <c r="B21" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="C21" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="D21" s="9"/>
+      <c r="E21" s="9"/>
+      <c r="F21" s="9"/>
+      <c r="G21" s="9"/>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B22" s="11" t="s">
-        <v>10</v>
-      </c>
-      <c r="C22" s="10"/>
-      <c r="D22" s="11" t="s">
-        <v>10</v>
-      </c>
-      <c r="E22" s="10"/>
-      <c r="F22" s="11" t="s">
-        <v>10</v>
-      </c>
-      <c r="G22" s="10"/>
+      <c r="B22" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="C22" s="9"/>
+      <c r="D22" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="E22" s="9"/>
+      <c r="F22" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="G22" s="9"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -940,15 +1088,61 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+  <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F20" sqref="F20"/>
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="24.28515625" customWidth="1"/>
+    <col min="2" max="2" width="45.5703125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="B1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="B2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="B3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" ht="300" x14ac:dyDescent="0.25">
+      <c r="A4" s="14" t="s">
+        <v>13</v>
+      </c>
+      <c r="B4" s="15" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" ht="120" x14ac:dyDescent="0.25">
+      <c r="A5" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="B5" s="13" t="s">
+        <v>20</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/QA/Test designe/test design.xlsx
+++ b/QA/Test designe/test design.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="20730"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C0F67FBA-3B05-42D2-8E79-42BD594C952A}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{01F80043-E3F3-4A9F-BADE-B9A121AA7BC8}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Transition state" sheetId="1" r:id="rId1"/>
@@ -262,6 +262,55 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>141714</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>56714</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{677AA547-C28B-4782-9018-522DFB3CD0D4}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="9285714" cy="3485714"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -587,13 +636,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F22" sqref="F22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -1091,7 +1141,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:B5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
       <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>

--- a/QA/Test designe/test design.xlsx
+++ b/QA/Test designe/test design.xlsx
@@ -3,14 +3,15 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="20730"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{01F80043-E3F3-4A9F-BADE-B9A121AA7BC8}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BF40BEE6-E500-43E8-BB26-6C2C7D56D821}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Transition state" sheetId="1" r:id="rId1"/>
     <sheet name="Decision Table" sheetId="2" r:id="rId2"/>
-    <sheet name="Use Cases" sheetId="3" r:id="rId3"/>
+    <sheet name="Test Cases" sheetId="4" r:id="rId3"/>
+    <sheet name="Use Cases" sheetId="3" r:id="rId4"/>
   </sheets>
   <calcPr calcId="179021"/>
   <extLst>
@@ -24,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113" uniqueCount="55">
   <si>
     <t>People who are 2 (two) years old and older</t>
   </si>
@@ -103,12 +104,537 @@
 2.1- The user changes the payment method
 2.2- Go to step 8 of the main case</t>
   </si>
+  <si>
+    <t>ID</t>
+  </si>
+  <si>
+    <t>Summary</t>
+  </si>
+  <si>
+    <t>Description</t>
+  </si>
+  <si>
+    <t>Priority</t>
+  </si>
+  <si>
+    <t>Creator</t>
+  </si>
+  <si>
+    <t>Rewiver</t>
+  </si>
+  <si>
+    <t>Expected result</t>
+  </si>
+  <si>
+    <t>TD_1</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Precondition:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+User must be a member of the program
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">STR:
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>1- Open the user's page and check the number of miles
+2- Check if the number of miles is 3000
+3- Check if the user has Classic card</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Verify that a user </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>flying 3000 miles</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> has a Classic card </t>
+    </r>
+  </si>
+  <si>
+    <t>1- The profile of the selected user with the necessary information was opened
+2- Number of flight miles is 3000
+3- The user has a Classic card</t>
+  </si>
+  <si>
+    <t>High</t>
+  </si>
+  <si>
+    <t>Ivan Shmidt</t>
+  </si>
+  <si>
+    <t>Valerii Vedmid</t>
+  </si>
+  <si>
+    <t>TD_2</t>
+  </si>
+  <si>
+    <t>TD_3</t>
+  </si>
+  <si>
+    <t>TD_4</t>
+  </si>
+  <si>
+    <t>TD_5</t>
+  </si>
+  <si>
+    <t>TD_6</t>
+  </si>
+  <si>
+    <t>TD_7</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Verify that a user </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>flying 19000 miles</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> has a Classic card </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Precondition:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+User must be a member of the program
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">STR:
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>1- Open the user's page and check the number of miles
+2- Check if the number of miles is 19000
+3- Check if the user has Classic card</t>
+    </r>
+  </si>
+  <si>
+    <t>1- The profile of the selected user with the necessary information was opened
+2- Number of flight miles is 19000
+3- The user has a Classic card</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Verify that a user </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>flying 2000 miles</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> hasn't a Classic card </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Precondition:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+User must be a member of the program
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">STR:
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>1- Open the user's page and check the number of miles
+2- Check if the number of miles is 2000
+3- Check if the user hasn't Classic card</t>
+    </r>
+  </si>
+  <si>
+    <t>1- The profile of the selected user with the necessary information was opened
+2- Number of flight miles is 2000
+3- The user hasn't a Classic card</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Verify that a user </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>flying 29000 miles</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> hasn't a Premium card </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Verify that a user </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>flying 20000 miles</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> hasn't a Premium card </t>
+    </r>
+  </si>
+  <si>
+    <t>1- The profile of the selected user with the necessary information was opened
+2- Number of flight miles is 20000
+3- The user has a Premium card</t>
+  </si>
+  <si>
+    <t>1- The profile of the selected user with the necessary information was opened
+2- Number of flight miles is 29000
+3- The user has a Premium card</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Precondition:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+User must be a member of the program
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">STR:
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>1- Open the user's page and check the number of miles
+2- Check if the number of miles is 20000
+3- Check if the user has Premium card</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Precondition:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+User must be a member of the program
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">STR:
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>1- Open the user's page and check the number of miles
+2- Check if the number of miles is 29000
+3- Check if the user has Premium card</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Check whether the user who is</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> more</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> than 2 years old in the program</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Check if the user who is</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> less</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> than 2 years old is a member of the program</t>
+    </r>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -143,6 +669,23 @@
     <font>
       <sz val="14"/>
       <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="204"/>
@@ -208,7 +751,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -246,6 +789,15 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -652,7 +1204,7 @@
   <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="M16" sqref="M16"/>
+      <selection activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1138,10 +1690,207 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{50504F62-5AAB-4DEF-8411-C2F17AD4E81A}">
+  <dimension ref="A1:G8"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
+      <selection activeCell="C7" sqref="C7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="7.85546875" customWidth="1"/>
+    <col min="2" max="2" width="36.28515625" customWidth="1"/>
+    <col min="3" max="3" width="32.42578125" customWidth="1"/>
+    <col min="4" max="4" width="37.5703125" customWidth="1"/>
+    <col min="5" max="5" width="12" customWidth="1"/>
+    <col min="6" max="6" width="18.28515625" customWidth="1"/>
+    <col min="7" max="7" width="17.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A1" s="16" t="s">
+        <v>21</v>
+      </c>
+      <c r="B1" s="16" t="s">
+        <v>22</v>
+      </c>
+      <c r="C1" s="16" t="s">
+        <v>23</v>
+      </c>
+      <c r="D1" s="16" t="s">
+        <v>27</v>
+      </c>
+      <c r="E1" s="16" t="s">
+        <v>24</v>
+      </c>
+      <c r="F1" s="16" t="s">
+        <v>25</v>
+      </c>
+      <c r="G1" s="16" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" ht="135" x14ac:dyDescent="0.25">
+      <c r="A2" s="17" t="s">
+        <v>28</v>
+      </c>
+      <c r="B2" s="15" t="s">
+        <v>30</v>
+      </c>
+      <c r="C2" s="18" t="s">
+        <v>29</v>
+      </c>
+      <c r="D2" s="15" t="s">
+        <v>31</v>
+      </c>
+      <c r="E2" s="17" t="s">
+        <v>32</v>
+      </c>
+      <c r="F2" s="17" t="s">
+        <v>33</v>
+      </c>
+      <c r="G2" s="17" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" ht="135" x14ac:dyDescent="0.25">
+      <c r="A3" s="17" t="s">
+        <v>35</v>
+      </c>
+      <c r="B3" s="15" t="s">
+        <v>41</v>
+      </c>
+      <c r="C3" s="18" t="s">
+        <v>42</v>
+      </c>
+      <c r="D3" s="15" t="s">
+        <v>43</v>
+      </c>
+      <c r="E3" s="17" t="s">
+        <v>32</v>
+      </c>
+      <c r="F3" s="17" t="s">
+        <v>33</v>
+      </c>
+      <c r="G3" s="17" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" ht="150" x14ac:dyDescent="0.25">
+      <c r="A4" s="17" t="s">
+        <v>36</v>
+      </c>
+      <c r="B4" s="15" t="s">
+        <v>44</v>
+      </c>
+      <c r="C4" s="18" t="s">
+        <v>45</v>
+      </c>
+      <c r="D4" s="15" t="s">
+        <v>46</v>
+      </c>
+      <c r="E4" s="17" t="s">
+        <v>32</v>
+      </c>
+      <c r="F4" s="17" t="s">
+        <v>33</v>
+      </c>
+      <c r="G4" s="17" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" ht="150" x14ac:dyDescent="0.25">
+      <c r="A5" s="17" t="s">
+        <v>37</v>
+      </c>
+      <c r="B5" s="15" t="s">
+        <v>48</v>
+      </c>
+      <c r="C5" s="18" t="s">
+        <v>51</v>
+      </c>
+      <c r="D5" s="15" t="s">
+        <v>49</v>
+      </c>
+      <c r="E5" s="17" t="s">
+        <v>32</v>
+      </c>
+      <c r="F5" s="17" t="s">
+        <v>33</v>
+      </c>
+      <c r="G5" s="17" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" ht="150" x14ac:dyDescent="0.25">
+      <c r="A6" s="17" t="s">
+        <v>38</v>
+      </c>
+      <c r="B6" s="15" t="s">
+        <v>47</v>
+      </c>
+      <c r="C6" s="18" t="s">
+        <v>52</v>
+      </c>
+      <c r="D6" s="15" t="s">
+        <v>50</v>
+      </c>
+      <c r="E6" s="17" t="s">
+        <v>32</v>
+      </c>
+      <c r="F6" s="17" t="s">
+        <v>33</v>
+      </c>
+      <c r="G6" s="17" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A7" s="17" t="s">
+        <v>39</v>
+      </c>
+      <c r="B7" s="15" t="s">
+        <v>54</v>
+      </c>
+      <c r="E7" s="17" t="s">
+        <v>32</v>
+      </c>
+      <c r="F7" s="17" t="s">
+        <v>33</v>
+      </c>
+      <c r="G7" s="17" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A8" s="17" t="s">
+        <v>40</v>
+      </c>
+      <c r="B8" s="13" t="s">
+        <v>53</v>
+      </c>
+      <c r="E8" s="17" t="s">
+        <v>32</v>
+      </c>
+      <c r="F8" s="17" t="s">
+        <v>33</v>
+      </c>
+      <c r="G8" s="17" t="s">
+        <v>34</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:B5"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>

--- a/QA/Test designe/test design.xlsx
+++ b/QA/Test designe/test design.xlsx
@@ -1,11 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="20730"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BF40BEE6-E500-43E8-BB26-6C2C7D56D821}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Transition state" sheetId="1" r:id="rId1"/>
@@ -13,7 +12,7 @@
     <sheet name="Test Cases" sheetId="4" r:id="rId3"/>
     <sheet name="Use Cases" sheetId="3" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="179021"/>
+  <calcPr calcId="144525"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -25,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="117" uniqueCount="59">
   <si>
     <t>People who are 2 (two) years old and older</t>
   </si>
@@ -130,6 +129,247 @@
   </si>
   <si>
     <r>
+      <t xml:space="preserve">Verify that a user </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>flying 3000 miles</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> has a Classic card </t>
+    </r>
+  </si>
+  <si>
+    <t>1- The profile of the selected user with the necessary information was opened
+2- Number of flight miles is 3000
+3- The user has a Classic card</t>
+  </si>
+  <si>
+    <t>High</t>
+  </si>
+  <si>
+    <t>Ivan Shmidt</t>
+  </si>
+  <si>
+    <t>Valerii Vedmid</t>
+  </si>
+  <si>
+    <t>TD_2</t>
+  </si>
+  <si>
+    <t>TD_3</t>
+  </si>
+  <si>
+    <t>TD_4</t>
+  </si>
+  <si>
+    <t>TD_5</t>
+  </si>
+  <si>
+    <t>TD_6</t>
+  </si>
+  <si>
+    <t>TD_7</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Verify that a user </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>flying 19000 miles</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> has a Classic card </t>
+    </r>
+  </si>
+  <si>
+    <t>1- The profile of the selected user with the necessary information was opened
+2- Number of flight miles is 19000
+3- The user has a Classic card</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Verify that a user </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>flying 2000 miles</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> hasn't a Classic card </t>
+    </r>
+  </si>
+  <si>
+    <t>1- The profile of the selected user with the necessary information was opened
+2- Number of flight miles is 2000
+3- The user hasn't a Classic card</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Verify that a user </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>flying 29000 miles</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> hasn't a Premium card </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Verify that a user </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>flying 20000 miles</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> hasn't a Premium card </t>
+    </r>
+  </si>
+  <si>
+    <t>1- The profile of the selected user with the necessary information was opened
+2- Number of flight miles is 20000
+3- The user has a Premium card</t>
+  </si>
+  <si>
+    <t>1- The profile of the selected user with the necessary information was opened
+2- Number of flight miles is 29000
+3- The user has a Premium card</t>
+  </si>
+  <si>
+    <r>
+      <t>Check whether the user who is</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> more</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> than 2 years old in the program</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Check if the user who is</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> less</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> than 2 years old is a member of the program</t>
+    </r>
+  </si>
+  <si>
+    <r>
       <rPr>
         <b/>
         <sz val="11"/>
@@ -163,7 +403,7 @@
         <charset val="204"/>
         <scheme val="minor"/>
       </rPr>
-      <t xml:space="preserve">STR:
+      <t xml:space="preserve">Steps:
 </t>
     </r>
     <r>
@@ -182,92 +422,6 @@
   </si>
   <si>
     <r>
-      <t xml:space="preserve">Verify that a user </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>flying 3000 miles</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> has a Classic card </t>
-    </r>
-  </si>
-  <si>
-    <t>1- The profile of the selected user with the necessary information was opened
-2- Number of flight miles is 3000
-3- The user has a Classic card</t>
-  </si>
-  <si>
-    <t>High</t>
-  </si>
-  <si>
-    <t>Ivan Shmidt</t>
-  </si>
-  <si>
-    <t>Valerii Vedmid</t>
-  </si>
-  <si>
-    <t>TD_2</t>
-  </si>
-  <si>
-    <t>TD_3</t>
-  </si>
-  <si>
-    <t>TD_4</t>
-  </si>
-  <si>
-    <t>TD_5</t>
-  </si>
-  <si>
-    <t>TD_6</t>
-  </si>
-  <si>
-    <t>TD_7</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Verify that a user </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>flying 19000 miles</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> has a Classic card </t>
-    </r>
-  </si>
-  <si>
-    <r>
       <rPr>
         <b/>
         <sz val="11"/>
@@ -301,7 +455,7 @@
         <charset val="204"/>
         <scheme val="minor"/>
       </rPr>
-      <t xml:space="preserve">STR:
+      <t xml:space="preserve">Steps:
 </t>
     </r>
     <r>
@@ -319,38 +473,6 @@
     </r>
   </si>
   <si>
-    <t>1- The profile of the selected user with the necessary information was opened
-2- Number of flight miles is 19000
-3- The user has a Classic card</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Verify that a user </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>flying 2000 miles</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> hasn't a Classic card </t>
-    </r>
-  </si>
-  <si>
     <r>
       <rPr>
         <b/>
@@ -385,7 +507,7 @@
         <charset val="204"/>
         <scheme val="minor"/>
       </rPr>
-      <t xml:space="preserve">STR:
+      <t xml:space="preserve">Steps:
 </t>
     </r>
     <r>
@@ -403,75 +525,6 @@
     </r>
   </si>
   <si>
-    <t>1- The profile of the selected user with the necessary information was opened
-2- Number of flight miles is 2000
-3- The user hasn't a Classic card</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Verify that a user </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>flying 29000 miles</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> hasn't a Premium card </t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Verify that a user </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>flying 20000 miles</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> hasn't a Premium card </t>
-    </r>
-  </si>
-  <si>
-    <t>1- The profile of the selected user with the necessary information was opened
-2- Number of flight miles is 20000
-3- The user has a Premium card</t>
-  </si>
-  <si>
-    <t>1- The profile of the selected user with the necessary information was opened
-2- Number of flight miles is 29000
-3- The user has a Premium card</t>
-  </si>
-  <si>
     <r>
       <rPr>
         <b/>
@@ -506,7 +559,7 @@
         <charset val="204"/>
         <scheme val="minor"/>
       </rPr>
-      <t xml:space="preserve">STR:
+      <t xml:space="preserve">Steps:
 </t>
     </r>
     <r>
@@ -558,7 +611,7 @@
         <charset val="204"/>
         <scheme val="minor"/>
       </rPr>
-      <t xml:space="preserve">STR:
+      <t xml:space="preserve">Steps:
 </t>
     </r>
     <r>
@@ -577,69 +630,89 @@
   </si>
   <si>
     <r>
-      <t>Check whether the user who is</t>
-    </r>
-    <r>
       <rPr>
         <b/>
         <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> more</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> than 2 years old in the program</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>Check if the user who is</t>
-    </r>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Steps:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+1- Open the user's page 
+2- Find the age and change it to "1 year"
+3- Press the batton "Save"</t>
+    </r>
+  </si>
+  <si>
     <r>
       <rPr>
         <b/>
         <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> less</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> than 2 years old is a member of the program</t>
-    </r>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Steps:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+1- Open the user's page 
+2- Find the age and change it to "2 year"
+3- Press the batton "Save"</t>
+    </r>
+  </si>
+  <si>
+    <t>1- User page opened
+2- Entered the value in the field of age
+3- After clicking on the "Save" button, a warning appeared with the text "The minimum age of the user should be from 2 years"</t>
+  </si>
+  <si>
+    <t>1- User page opened
+2- Entered the value in the field of age
+3- User data was successfully updated and a message appeared with the text "User data has been successfully updated"</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -669,14 +742,6 @@
     <font>
       <sz val="14"/>
       <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <charset val="204"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="204"/>
@@ -753,55 +818,55 @@
   </cellStyleXfs>
   <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Обычный" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
@@ -836,7 +901,7 @@
         <xdr:cNvPr id="2" name="Picture 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{677AA547-C28B-4782-9018-522DFB3CD0D4}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{677AA547-C28B-4782-9018-522DFB3CD0D4}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -866,9 +931,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Тема Office">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Стандартная">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -906,9 +971,9 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Стандартная">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -941,26 +1006,9 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -993,26 +1041,9 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Стандартная">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -1185,7 +1216,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -1200,7 +1231,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -1690,11 +1721,11 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{50504F62-5AAB-4DEF-8411-C2F17AD4E81A}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G8"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1736,148 +1767,160 @@
         <v>28</v>
       </c>
       <c r="B2" s="15" t="s">
+        <v>29</v>
+      </c>
+      <c r="C2" s="18" t="s">
+        <v>50</v>
+      </c>
+      <c r="D2" s="15" t="s">
         <v>30</v>
       </c>
-      <c r="C2" s="18" t="s">
-        <v>29</v>
-      </c>
-      <c r="D2" s="15" t="s">
+      <c r="E2" s="17" t="s">
         <v>31</v>
       </c>
-      <c r="E2" s="17" t="s">
+      <c r="F2" s="17" t="s">
         <v>32</v>
       </c>
-      <c r="F2" s="17" t="s">
+      <c r="G2" s="17" t="s">
         <v>33</v>
-      </c>
-      <c r="G2" s="17" t="s">
-        <v>34</v>
       </c>
     </row>
     <row r="3" spans="1:7" ht="135" x14ac:dyDescent="0.25">
       <c r="A3" s="17" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B3" s="15" t="s">
+        <v>40</v>
+      </c>
+      <c r="C3" s="18" t="s">
+        <v>51</v>
+      </c>
+      <c r="D3" s="15" t="s">
         <v>41</v>
       </c>
-      <c r="C3" s="18" t="s">
-        <v>42</v>
-      </c>
-      <c r="D3" s="15" t="s">
-        <v>43</v>
-      </c>
       <c r="E3" s="17" t="s">
+        <v>31</v>
+      </c>
+      <c r="F3" s="17" t="s">
         <v>32</v>
       </c>
-      <c r="F3" s="17" t="s">
+      <c r="G3" s="17" t="s">
         <v>33</v>
-      </c>
-      <c r="G3" s="17" t="s">
-        <v>34</v>
       </c>
     </row>
     <row r="4" spans="1:7" ht="150" x14ac:dyDescent="0.25">
       <c r="A4" s="17" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B4" s="15" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="C4" s="18" t="s">
-        <v>45</v>
+        <v>52</v>
       </c>
       <c r="D4" s="15" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="E4" s="17" t="s">
+        <v>31</v>
+      </c>
+      <c r="F4" s="17" t="s">
         <v>32</v>
       </c>
-      <c r="F4" s="17" t="s">
+      <c r="G4" s="17" t="s">
         <v>33</v>
-      </c>
-      <c r="G4" s="17" t="s">
-        <v>34</v>
       </c>
     </row>
     <row r="5" spans="1:7" ht="150" x14ac:dyDescent="0.25">
       <c r="A5" s="17" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B5" s="15" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="C5" s="18" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="D5" s="15" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="E5" s="17" t="s">
+        <v>31</v>
+      </c>
+      <c r="F5" s="17" t="s">
         <v>32</v>
       </c>
-      <c r="F5" s="17" t="s">
+      <c r="G5" s="17" t="s">
         <v>33</v>
-      </c>
-      <c r="G5" s="17" t="s">
-        <v>34</v>
       </c>
     </row>
     <row r="6" spans="1:7" ht="150" x14ac:dyDescent="0.25">
       <c r="A6" s="17" t="s">
+        <v>37</v>
+      </c>
+      <c r="B6" s="15" t="s">
+        <v>44</v>
+      </c>
+      <c r="C6" s="18" t="s">
+        <v>54</v>
+      </c>
+      <c r="D6" s="15" t="s">
+        <v>47</v>
+      </c>
+      <c r="E6" s="17" t="s">
+        <v>31</v>
+      </c>
+      <c r="F6" s="17" t="s">
+        <v>32</v>
+      </c>
+      <c r="G6" s="17" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" ht="90" x14ac:dyDescent="0.25">
+      <c r="A7" s="17" t="s">
         <v>38</v>
       </c>
-      <c r="B6" s="15" t="s">
-        <v>47</v>
-      </c>
-      <c r="C6" s="18" t="s">
-        <v>52</v>
-      </c>
-      <c r="D6" s="15" t="s">
-        <v>50</v>
-      </c>
-      <c r="E6" s="17" t="s">
+      <c r="B7" s="15" t="s">
+        <v>49</v>
+      </c>
+      <c r="C7" s="18" t="s">
+        <v>55</v>
+      </c>
+      <c r="D7" s="15" t="s">
+        <v>57</v>
+      </c>
+      <c r="E7" s="17" t="s">
+        <v>31</v>
+      </c>
+      <c r="F7" s="17" t="s">
         <v>32</v>
       </c>
-      <c r="F6" s="17" t="s">
+      <c r="G7" s="17" t="s">
         <v>33</v>
       </c>
-      <c r="G6" s="17" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="A7" s="17" t="s">
+    </row>
+    <row r="8" spans="1:7" ht="90" x14ac:dyDescent="0.25">
+      <c r="A8" s="17" t="s">
         <v>39</v>
       </c>
-      <c r="B7" s="15" t="s">
-        <v>54</v>
-      </c>
-      <c r="E7" s="17" t="s">
+      <c r="B8" s="13" t="s">
+        <v>48</v>
+      </c>
+      <c r="C8" s="18" t="s">
+        <v>56</v>
+      </c>
+      <c r="D8" s="15" t="s">
+        <v>58</v>
+      </c>
+      <c r="E8" s="17" t="s">
+        <v>31</v>
+      </c>
+      <c r="F8" s="17" t="s">
         <v>32</v>
       </c>
-      <c r="F7" s="17" t="s">
+      <c r="G8" s="17" t="s">
         <v>33</v>
-      </c>
-      <c r="G7" s="17" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="A8" s="17" t="s">
-        <v>40</v>
-      </c>
-      <c r="B8" s="13" t="s">
-        <v>53</v>
-      </c>
-      <c r="E8" s="17" t="s">
-        <v>32</v>
-      </c>
-      <c r="F8" s="17" t="s">
-        <v>33</v>
-      </c>
-      <c r="G8" s="17" t="s">
-        <v>34</v>
       </c>
     </row>
   </sheetData>
@@ -1887,7 +1930,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
